--- a/Dictionary.xlsx
+++ b/Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkewon\Documents\GitHub\SMA\SMAGroup1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrudrappa\Desktop\SMA\SMA-master\SMA-master\R code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDEC211-C5AD-4D94-B345-567397CF8D9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C8A0E3-0B09-4124-BCED-141DCBEDD0F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>Organization</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Soft Skills</t>
   </si>
   <si>
-    <t>Programming Skills</t>
-  </si>
-  <si>
     <t>Education(Majors)</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>boston</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>troubleshoot</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t>salt lake city</t>
   </si>
   <si>
-    <t>c#</t>
-  </si>
-  <si>
     <t>create</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
     <t>coordinate</t>
   </si>
   <si>
-    <t>C++</t>
-  </si>
-  <si>
     <t>research</t>
   </si>
   <si>
@@ -294,6 +282,27 @@
   </si>
   <si>
     <t>designer</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>hadoop</t>
+  </si>
+  <si>
+    <t>azure</t>
+  </si>
+  <si>
+    <t>rstudio</t>
+  </si>
+  <si>
+    <t>hive</t>
   </si>
 </sst>
 </file>
@@ -349,7 +358,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -647,11 +656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
@@ -680,297 +689,309 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
         <v>88</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
         <v>69</v>
       </c>
-      <c r="H17" t="s">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Dictionary.xlsx
+++ b/Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrudrappa\Desktop\SMA\SMA-master\SMA-master\R code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkewon\Documents\GitHub\SMA\SMAGroup1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C8A0E3-0B09-4124-BCED-141DCBEDD0F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1C1A4E-0CCE-47C7-9FD4-8CB683A0F69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Organization</t>
   </si>
@@ -38,117 +38,57 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Soft Skills</t>
-  </si>
-  <si>
-    <t>Education(Majors)</t>
-  </si>
-  <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t>systems</t>
-  </si>
-  <si>
     <t>ibm</t>
   </si>
   <si>
     <t>chicago</t>
   </si>
   <si>
-    <t>healthcare</t>
-  </si>
-  <si>
     <t>html</t>
   </si>
   <si>
-    <t>computer science</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
     <t>united health group</t>
   </si>
   <si>
     <t>san francisco</t>
   </si>
   <si>
-    <t>insurance</t>
-  </si>
-  <si>
     <t>css</t>
   </si>
   <si>
-    <t>analyse</t>
-  </si>
-  <si>
-    <t>linux</t>
-  </si>
-  <si>
     <t>intermountain health care</t>
   </si>
   <si>
     <t>akron</t>
   </si>
   <si>
-    <t>bank</t>
-  </si>
-  <si>
     <t>java</t>
   </si>
   <si>
-    <t>build</t>
-  </si>
-  <si>
-    <t>unix</t>
-  </si>
-  <si>
     <t>university of washington</t>
   </si>
   <si>
     <t>columbus</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>sql</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
     <t>citizens bank</t>
   </si>
   <si>
     <t>bloomington</t>
   </si>
   <si>
-    <t>academy</t>
-  </si>
-  <si>
     <t>python</t>
   </si>
   <si>
-    <t>audit</t>
-  </si>
-  <si>
     <t>tata consultancy services</t>
   </si>
   <si>
     <t>boston</t>
   </si>
   <si>
-    <t>troubleshoot</t>
-  </si>
-  <si>
     <t>Hewlett Packard Enterprise</t>
   </si>
   <si>
@@ -158,18 +98,12 @@
     <t>tableau</t>
   </si>
   <si>
-    <t>bugfix</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rochester Institute of Technology </t>
   </si>
   <si>
     <t>salt lake city</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
     <t>Wheaton College</t>
   </si>
   <si>
@@ -179,9 +113,6 @@
     <t>django</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -191,52 +122,25 @@
     <t>javascript</t>
   </si>
   <si>
-    <t>translate</t>
-  </si>
-  <si>
     <t>fort Collins</t>
   </si>
   <si>
     <t>excel</t>
   </si>
   <si>
-    <t>develop</t>
-  </si>
-  <si>
     <t>rochester</t>
   </si>
   <si>
     <t>sas</t>
   </si>
   <si>
-    <t>manage</t>
-  </si>
-  <si>
     <t>norton</t>
   </si>
   <si>
     <t>matlab</t>
   </si>
   <si>
-    <t>coordinate</t>
-  </si>
-  <si>
-    <t>research</t>
-  </si>
-  <si>
     <t>github</t>
-  </si>
-  <si>
-    <t>conduct</t>
-  </si>
-  <si>
-    <t>perform</t>
-  </si>
-  <si>
-    <t>debug</t>
-  </si>
-  <si>
-    <t>grade</t>
   </si>
   <si>
     <t>tutor</t>
@@ -358,7 +262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -654,25 +558,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I21"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -683,315 +583,216 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>59</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
